--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/NextProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/NextProfile.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AADTHAKUR\Documents\RStars_Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8433159-79F7-49A9-AF75-D7F5C2CF5765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483B337B-5DDD-42EC-8B20-41EEE03D5AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{82F0EBEC-25E3-4366-8F02-E408963A0804}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{82F0EBEC-25E3-4366-8F02-E408963A0804}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Keyword</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>link_nextProfile</t>
-  </si>
-  <si>
-    <t>link_agencyCode1_wait_ac1</t>
   </si>
   <si>
     <t>Iteration</t>
@@ -485,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C0CCB-5F9D-4741-9FD9-7D62518CB221}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,15 +545,9 @@
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="3"/>
@@ -571,7 +562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C52749D2-5B79-48DD-89A8-77E5398B0231}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -584,13 +575,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -598,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4"/>
     </row>
